--- a/Inputs/Metadata/Cohort Metadata TEST.xlsx
+++ b/Inputs/Metadata/Cohort Metadata TEST.xlsx
@@ -6,19 +6,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndidier\Desktop\skyn_data_manager\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndidier\Desktop\skyn_data_manager\Inputs\Metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4F92FC-48C3-4BD0-A136-591068BAD329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8C473B-64E6-40E9-883E-490DAF9BA351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1515" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Quality" sheetId="1" r:id="rId1"/>
     <sheet name="FORMAT EXAMPLE" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Data Quality'!$E$1:$E$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Data Quality'!$E$1:$E$78</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="46">
   <si>
     <t>Alc</t>
   </si>
@@ -588,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L75"/>
+  <dimension ref="A1:L74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,27 +735,27 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
-        <v>5001</v>
+        <v>5002</v>
       </c>
       <c r="B6" s="13">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="C6" s="13">
         <v>1</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
-        <v>5002</v>
+        <v>5003</v>
       </c>
       <c r="B7" s="13">
         <v>1</v>
@@ -763,19 +763,19 @@
       <c r="C7" s="13">
         <v>1</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
-        <v>5003</v>
+        <v>5004</v>
       </c>
       <c r="B8" s="13">
         <v>1</v>
@@ -787,10 +787,10 @@
         <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -798,7 +798,7 @@
         <v>5004</v>
       </c>
       <c r="B9" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="13">
         <v>1</v>
@@ -818,7 +818,7 @@
         <v>5004</v>
       </c>
       <c r="B10" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" s="13">
         <v>1</v>
@@ -827,67 +827,47 @@
         <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
-        <v>5004</v>
-      </c>
-      <c r="B11" s="13">
-        <v>3</v>
-      </c>
-      <c r="C11" s="13">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-    </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D25" s="6"/>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D33" s="6"/>
-      <c r="F33" s="6"/>
-    </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D35" s="6"/>
-      <c r="F35" s="6"/>
-    </row>
-    <row r="53" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="L53" s="3"/>
-    </row>
-    <row r="59" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D59" s="6"/>
-      <c r="F59" s="6"/>
-    </row>
-    <row r="61" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D61" s="6"/>
-      <c r="F61" s="6"/>
-    </row>
-    <row r="75" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D75" s="6"/>
-      <c r="F75" s="6"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D24" s="6"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="32" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D32" s="6"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D34" s="6"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="52" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="58" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D58" s="6"/>
+      <c r="F58" s="6"/>
+    </row>
+    <row r="60" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D60" s="6"/>
+      <c r="F60" s="6"/>
+    </row>
+    <row r="74" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D74" s="6"/>
+      <c r="F74" s="6"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D79">
-    <sortCondition ref="A2:A79"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D78">
+    <sortCondition ref="A2:A78"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Inputs/Metadata/Cohort Metadata TEST.xlsx
+++ b/Inputs/Metadata/Cohort Metadata TEST.xlsx
@@ -6,10 +6,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndidier\Desktop\skyn_data_manager\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndidier\Desktop\skyn_data_manager\Inputs\Metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4F92FC-48C3-4BD0-A136-591068BAD329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C4C660-07F3-4947-B173-B03D94F336A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="FORMAT EXAMPLE" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Data Quality'!$E$1:$E$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Data Quality'!$E$1:$E$78</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="46">
   <si>
     <t>Alc</t>
   </si>
@@ -588,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L75"/>
+  <dimension ref="A1:L74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,27 +735,27 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
-        <v>5001</v>
+        <v>5002</v>
       </c>
       <c r="B6" s="13">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="C6" s="13">
         <v>1</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
-        <v>5002</v>
+        <v>5003</v>
       </c>
       <c r="B7" s="13">
         <v>1</v>
@@ -763,19 +763,19 @@
       <c r="C7" s="13">
         <v>1</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
-        <v>5003</v>
+        <v>5004</v>
       </c>
       <c r="B8" s="13">
         <v>1</v>
@@ -787,10 +787,10 @@
         <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -798,7 +798,7 @@
         <v>5004</v>
       </c>
       <c r="B9" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="13">
         <v>1</v>
@@ -818,7 +818,7 @@
         <v>5004</v>
       </c>
       <c r="B10" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" s="13">
         <v>1</v>
@@ -827,67 +827,47 @@
         <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
-        <v>5004</v>
-      </c>
-      <c r="B11" s="13">
-        <v>3</v>
-      </c>
-      <c r="C11" s="13">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-    </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D25" s="6"/>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D33" s="6"/>
-      <c r="F33" s="6"/>
-    </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D35" s="6"/>
-      <c r="F35" s="6"/>
-    </row>
-    <row r="53" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="L53" s="3"/>
-    </row>
-    <row r="59" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D59" s="6"/>
-      <c r="F59" s="6"/>
-    </row>
-    <row r="61" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D61" s="6"/>
-      <c r="F61" s="6"/>
-    </row>
-    <row r="75" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D75" s="6"/>
-      <c r="F75" s="6"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D24" s="6"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="32" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D32" s="6"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D34" s="6"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="52" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="58" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D58" s="6"/>
+      <c r="F58" s="6"/>
+    </row>
+    <row r="60" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D60" s="6"/>
+      <c r="F60" s="6"/>
+    </row>
+    <row r="74" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D74" s="6"/>
+      <c r="F74" s="6"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D79">
-    <sortCondition ref="A2:A79"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D78">
+    <sortCondition ref="A2:A78"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
